--- a/xlsx/瓊·羅賓遜_intext.xlsx
+++ b/xlsx/瓊·羅賓遜_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Joan Robinson</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_瓊·羅賓遜</t>
+    <t>体育运动_体育运动_竞争_瓊·羅賓遜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%8F%8A%E6%84%9B%E7%88%BE%E8%98%AD%E8%81%AF%E5%90%88%E7%8E%8B%E5%9C%8B</t>
